--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@VBRT-NOCHK\!G\repos\pyscreenshot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\pyscreenshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{79A0DAB0-E68D-4C47-856D-712DB975B27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="90" windowWidth="26565" windowHeight="15420" xr2:uid="{8C1936AE-51C7-4135-B7E8-5C7646D81501}"/>
+    <workbookView xWindow="300" yWindow="90" windowWidth="26565" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="ダイアログ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="108">
   <si>
     <t>■環境設定ダイアログ</t>
     <rPh sb="1" eb="5">
@@ -274,10 +273,6 @@
     <t>アクティブウィンドウ</t>
   </si>
   <si>
-    <t>－</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>トリミング</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -341,62 +336,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>_auto_save (bool)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_save_folders (list[str])</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_prefix (str)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_sequence_digit (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_sequence_start (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_capture_mcursor (bool)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_beep_on_capture (bool)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_delayed_capture (bool)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_delayed_time (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_hotkey_imagefile (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_hotkey_clipboard (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_hotkey_activewin (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_trimming (bool)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_trimming_size (list[int])</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■定期実行設定ダイアログ</t>
     <rPh sb="1" eb="3">
       <t>テイキ</t>
@@ -521,44 +460,116 @@
     <t>radio_box_numbering</t>
   </si>
   <si>
-    <t>_periodic_save_folder (str)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_periodic_interval (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>spin_ctrl_periodic_interval</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>_periodic_exit_modifier (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_periodic_exit_fkey (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_periodic_target (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_periodic_numbering (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auto_save (bool)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>save_folders (list[str])</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prefix (str)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sequence_digit (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sequence_start (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auto_save (bool)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>capture_mcursor (bool)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beep_on_capture (bool)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delayed_capture (bool)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delayed_time (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hotkey_clipboard (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hotkey_imagefile (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hotkey_activewin (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trimming (bool)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trimming_size (list[int])</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>periodic_save_folder (str)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>periodic_interval (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>periodic_exit_modifier (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>periodic_exit_fkey (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>periodic_target (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>periodic_numbering (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナンバリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>numbering</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -710,25 +721,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1068,11 +1079,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8AB09A-CD62-43C0-BD81-0C7C351CDD72}">
-  <dimension ref="A1:I51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1094,7 +1105,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1127,7 +1138,7 @@
         <v>18</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1150,7 +1161,7 @@
         <v>26</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1165,7 +1176,7 @@
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1173,14 +1184,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="10" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="10"/>
+        <v>81</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="I9" s="10" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1188,16 +1201,14 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1205,525 +1216,541 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14" t="s">
-        <v>59</v>
+      <c r="F12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="10" t="s">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="4"/>
+      <c r="F19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="6"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E23" s="4"/>
+      <c r="F23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="6"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C34" t="s">
+    </row>
+    <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="2">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="2">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="2">
-        <v>2</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="2">
-        <v>3</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="11"/>
-    </row>
-    <row r="45" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="2">
-        <v>4</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H45" s="13" t="s">
+      <c r="H46" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I45" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H46" s="14"/>
-      <c r="I46" s="10"/>
-    </row>
-    <row r="47" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I46" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="10" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="H47" s="14"/>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="10" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H48" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="I48" s="10"/>
     </row>
     <row r="49" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="10"/>
     </row>
     <row r="50" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="2">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="2">
         <v>5</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H50" s="9" t="s">
+      <c r="D51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
+    </row>
+    <row r="52" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\pyscreenshot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@VBRT-NOCHK\!G\repos\pyscreenshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA5F1E2-F1EC-48DA-8515-34AAA5E4BD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="90" windowWidth="26565" windowHeight="15420"/>
+    <workbookView xWindow="300" yWindow="90" windowWidth="26565" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ダイアログ" sheetId="1" r:id="rId1"/>
@@ -19,41 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="108">
-  <si>
-    <t>■環境設定ダイアログ</t>
-    <rPh sb="1" eb="5">
-      <t>カンキョウセッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SettingsDialog</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2) 設定項目</t>
-    <rPh sb="3" eb="7">
-      <t>セッテイコウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -104,9 +76,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>radio_auto_save</t>
-  </si>
-  <si>
     <t>class名</t>
     <rPh sb="5" eb="6">
       <t>メイ</t>
@@ -114,10 +83,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>list_box_auto_save_folders</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>保存先リスト</t>
     <rPh sb="0" eb="3">
       <t>ホゾンサキ</t>
@@ -125,10 +90,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>textctrl_prefix</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>接頭語</t>
     <rPh sb="0" eb="3">
       <t>セットウゴ</t>
@@ -136,10 +97,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>spin_ctrl_sequence_digit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シーケンス桁数</t>
     <rPh sb="5" eb="7">
       <t>ケタスウ</t>
@@ -168,53 +125,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>spin_ctrl_sequence_start_no</t>
-  </si>
-  <si>
-    <t>0～100000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保存ファイル名を毎回指定する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>radio_inquire_save_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RB_GROUP</t>
   </si>
   <si>
-    <t>RB_GROUP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マウスカーソルをキャプチャする</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>checkbox_mcursor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キャプチャ終了時に音を鳴らす</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>checkbox_beep_on_capture</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>その他の設定</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>遅延キャプチャ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>checkbox_delayed</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -225,9 +151,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>spin_ctrl_delay_time</t>
-  </si>
-  <si>
     <t>1～600(秒)</t>
     <rPh sb="6" eb="7">
       <t>ビョウ</t>
@@ -250,22 +173,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>radio_box_hotkey_clipboard</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PNGへ保存</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>radio_box_hotkey_imagefile</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>choice_hotkey_active_window</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>"F1"～"F12"</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -274,14 +185,6 @@
   </si>
   <si>
     <t>トリミング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>checkbox_triming</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>spin_ctrl_triming_top</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -313,22 +216,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1～100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>spin_ctrl_triming_bottom</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>spin_ctrl_triming_left</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>spin_ctrl_triming_right</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロパティ(型)</t>
     <rPh sb="6" eb="7">
       <t>ガタ</t>
@@ -336,30 +223,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■定期実行設定ダイアログ</t>
-    <rPh sb="1" eb="3">
-      <t>テイキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1) クラス名</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PeriodicDialog</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>保存先</t>
     <rPh sb="0" eb="3">
       <t>ホゾンサキ</t>
@@ -367,10 +230,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>text_ctrl_periodic_save_folder</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>間隔</t>
     <rPh sb="0" eb="2">
       <t>カンカク</t>
@@ -388,10 +247,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>choice_periodic_exit_modifire</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>終了Fキー</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
@@ -399,14 +254,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>choice_periodic_exit_fkey</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>none,shift,alt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>対象</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
@@ -418,156 +265,267 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ディスプレイ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アクティブウィンドウ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ディスプレイ番号</t>
-    <rPh sb="6" eb="8">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>radio_target_desktop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>radio_target_display</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>choice_target_display_no</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>radio_target_active_window</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1～</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ナンバリング</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>radio_box_numbering</t>
+    <t>prefix (str)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>capture_mcursor (bool)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delayed_capture (bool)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delayed_time (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hotkey_clipboard (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hotkey_imagefile (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hotkey_activewin (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trimming (bool)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trimming_size (list[int])</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>periodic_save_folder (str)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>periodic_interval (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>periodic_target (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>periodic_numbering (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナンバリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■設定項目</t>
+    <rPh sb="1" eb="3">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1) 環境設定（SettingsDialog）</t>
+    <rPh sb="3" eb="7">
+      <t>カンキョウセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2) 定期実行設定（PeriodicDialog）</t>
+    <rPh sb="3" eb="5">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存ファイル名を毎回指定する</t>
+  </si>
+  <si>
+    <t>auto_save (bool)</t>
+  </si>
+  <si>
+    <t>radio_btn_inquire_allways</t>
+  </si>
+  <si>
+    <t>radio_btn_auto_save</t>
+  </si>
+  <si>
+    <t>check_list_box_auto_save_folders</t>
+  </si>
+  <si>
+    <t>radio_btn_numbering_datetime</t>
+  </si>
+  <si>
+    <t>radio_btn_nubering_prefix_sequence</t>
+  </si>
+  <si>
+    <t>numbering (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>save_folders (list[str]), save_folder_index (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text_ctrl_prefix</t>
+  </si>
+  <si>
+    <t>spin_ctrl_sequence_digits</t>
+  </si>
+  <si>
+    <t>0～100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sequence_digits (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spin_ctrl_sequence_begin</t>
+  </si>
+  <si>
+    <t>sequence_begin (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>checkbox_capture_mcursor</t>
+  </si>
+  <si>
+    <t>checkbox_sound_on_capture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sound_on_capture (bool)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>checkbox_delayed_capture</t>
+  </si>
+  <si>
+    <t>spin_ctrl_delayed_time</t>
+  </si>
+  <si>
+    <t>checkbox_trimming</t>
+  </si>
+  <si>
+    <t>spin_ctrl_trimming_top</t>
+  </si>
+  <si>
+    <t>spin_ctrl_trimming_bottom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spin_ctrl_trimming_left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spin_ctrl_trimming_right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>radio_btn_hotkey_png_ctrl_alt</t>
+  </si>
+  <si>
+    <t>radio_btn_hotkey_png_ctrl_shift</t>
+  </si>
+  <si>
+    <t>choice_hotkey_active_window</t>
+  </si>
+  <si>
+    <t>radio_btn_hotkey_bmp_ctrl_alt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>radio_btn_hotkey_bmp_ctrl_shift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text_ctrl_periodic_folder</t>
   </si>
   <si>
     <t>spin_ctrl_periodic_interval</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0,1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>auto_save (bool)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>save_folders (list[str])</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>prefix (str)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sequence_digit (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sequence_start (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>auto_save (bool)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>capture_mcursor (bool)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>beep_on_capture (bool)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>delayed_capture (bool)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>delayed_time (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hotkey_clipboard (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hotkey_imagefile (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hotkey_activewin (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>trimming (bool)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>trimming_size (list[int])</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>periodic_save_folder (str)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>periodic_interval (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>periodic_exit_modifier (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>periodic_exit_fkey (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>periodic_target (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>periodic_numbering (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ナンバリング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0,1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>numbering</t>
+  </si>
+  <si>
+    <t>1～3600(秒)</t>
+    <rPh sb="7" eb="8">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>choice_periodic_stopkey_modifire</t>
+  </si>
+  <si>
+    <t>choice_periodic_stop_fkey</t>
+  </si>
+  <si>
+    <t>periodic_stop_modifier (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>periodic_stop_fkey (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>choice_periodic_capture_target</t>
+  </si>
+  <si>
+    <t>ディスプレイｎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>radio_btn_periodic_numbering_datetime</t>
+  </si>
+  <si>
+    <t>radio_btn_periodic_numbering_autosave</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>none,shift,ctrl,alt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1～ｎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｎ+1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -606,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -711,13 +669,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,6 +735,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,12 +1101,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1093,660 +1113,718 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="7" t="s">
+      <c r="G4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="G5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="10" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="4"/>
+      <c r="F14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E17" s="4"/>
+      <c r="F17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E18" s="6"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="4"/>
+      <c r="F20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E21" s="4"/>
+      <c r="F21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="6"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I24" s="25"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="22">
+        <v>1001</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F26" s="16"/>
+      <c r="G26" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="27">
+        <v>1002</v>
+      </c>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F27" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="23">
+        <v>1011</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F28" s="14"/>
+      <c r="G28" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="23">
+        <v>1012</v>
+      </c>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="10" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+      <c r="I30" s="25"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="33" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
+    <row r="34" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="7" t="s">
+      <c r="D37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="26"/>
+      <c r="J37" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="2">
         <v>3</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="G39" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="2">
-        <v>2</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I41" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="2">
-        <v>3</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I43" s="9" t="s">
+      <c r="I39" s="26"/>
+      <c r="J39" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="28"/>
+      <c r="J40" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" s="30"/>
+      <c r="J42" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="17" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I43" s="31"/>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I44" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I44" s="31"/>
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="11"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H45" s="11"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="11"/>
+    </row>
+    <row r="46" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>75</v>
+      <c r="F46" s="18"/>
+      <c r="G46" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="I46" s="22"/>
+      <c r="J46" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H47" s="14"/>
-      <c r="I47" s="10"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I48" s="10"/>
-    </row>
-    <row r="49" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H49" s="14"/>
-      <c r="I49" s="10"/>
-    </row>
-    <row r="50" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-    </row>
-    <row r="51" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="2">
-        <v>5</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="19"/>
+    </row>
+    <row r="48" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@VBRT-NOCHK\!G\repos\pyscreenshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA5F1E2-F1EC-48DA-8515-34AAA5E4BD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A33F23A-4234-4FDB-9782-ABB2856F683F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="90" windowWidth="26565" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="90" windowWidth="26565" windowHeight="15420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ダイアログ" sheetId="1" r:id="rId1"/>
+    <sheet name="設定項目（プロパティ）" sheetId="1" r:id="rId1"/>
+    <sheet name="ホット・キーについて" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="161">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -128,14 +129,6 @@
     <t>RB_GROUP</t>
   </si>
   <si>
-    <t>マウスカーソルをキャプチャする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャプチャ終了時に音を鳴らす</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>その他の設定</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -329,16 +322,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■設定項目</t>
-    <rPh sb="1" eb="3">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1) 環境設定（SettingsDialog）</t>
     <rPh sb="3" eb="7">
       <t>カンキョウセッテイ</t>
@@ -510,15 +493,519 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ｎ+1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウスカーソルをキャプチャする</t>
+  </si>
+  <si>
+    <t>キャプチャ終了時に音を鳴らす</t>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ホット・キーについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 登録項目</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディスプレイ1～ｎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクティブデスクトップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PNGファイルへ保存</t>
+    <rPh sb="8" eb="10">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディスプレイ1～n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. 事前定義（定数）</t>
+    <rPh sb="3" eb="7">
+      <t>ジゼンテイギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定数名</t>
+    <rPh sb="0" eb="3">
+      <t>テイスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ctrl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義内容</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"Shift"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"Ctrl"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"Alt"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HK_MOD_SHIFT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HK_MOD_CTRL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HK_MOD_ALT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ctrl+Alt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ctrl+Shift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift+Alt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ctrl+Shift+Alt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f'{HK_MOD_CTRL}+{HK_MOD_ALT}'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f'{HK_MOD_CTRL}+{HK_MOD_SHIFT}'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f'{HK_MOD_SHIFT}+{HK_MOD_ALT}'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f'{HK_MOD_CTRL}+{HK_MOD_SHIFT}+{HK_MOD_ALT}'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HK_MOD_CTRL_ALT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HK_MOD_CTRL_SHIFT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HK_MOD_SHIFT_ALT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HK_MOD_CTRL_SHIFT_ALT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・初期処理（self.initialize）で、設定値の読み込み後</t>
+    <rPh sb="1" eb="3">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>セッテイチ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・環境設定ダイアログを'OK'で閉じた時</t>
+    <rPh sb="1" eb="5">
+      <t>カンキョウセッテイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■設定ファイル</t>
+    <rPh sb="1" eb="3">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[config.ini]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■設定項目（主プロパティ）</t>
+    <rPh sb="1" eb="3">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■その他のプロパティ</t>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディスプレイ数</t>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティ名(型)</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>display (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>periodic_capture (bool)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定期実行状態</t>
+    <rPh sb="0" eb="2">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※起動時に取得する。ディスプレイの状態が変化した（数、位置）場合は、アプリを起動し直す。</t>
+    <rPh sb="1" eb="4">
+      <t>キドウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>self.hotkey_clipboard = [&lt;デスクトップ&gt;, &lt;ディスプレイ1&gt;,…, &lt;ディスプレイn&gt;, &lt;アクティブデスクトップ&gt;]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>self.hotkey_imagefile = [&lt;デスクトップ&gt;, &lt;ディスプレイ1&gt;,…, &lt;ディスプレイn&gt;, &lt;アクティブデスクトップ&gt;]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. ホット・キー文字列の配列（起動時、設定変更時にconfigから生成し、ホット・キーの設定も行う。メニューのアクセラレーターにも使う）</t>
+    <rPh sb="16" eb="19">
+      <t>キドウジ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>セッテイヘンコウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※修飾キーは、Ctrl+Alt または Ctrl+Shift の何方かを選択する</t>
+    <rPh sb="1" eb="3">
+      <t>シュウショク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ドナタ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Ctrl+Alt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+0</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Ctrl+Alt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+1～n</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Ctrl+Alt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+Fn</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Ctrl+Shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+0</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Ctrl+Shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+1～n</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Ctrl+Shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+Fn</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2) 展開タイミング</t>
+    <rPh sb="3" eb="5">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1) プロパティ名、内容</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -529,7 +1016,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,6 +1028,34 @@
       <sz val="6"/>
       <name val="BIZ UDゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -688,104 +1203,137 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,6 +1351,390 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2057401</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A7687A-4788-4614-B54F-24C954F60DE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219076" y="10420350"/>
+          <a:ext cx="3352800" cy="6162675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>[basic]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>auto_save = True</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>numbering = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>prefix = SS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>sequence_digits = 6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>sequence_begin = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>save_folder_index = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>folder1 = C:\Users\u1601\Pictures</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>[other]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>mouse_cursor = False</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>sound_on_capture = False</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>[delayed_capture]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>delayed_capture = False</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>delayed_time = 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>[trimming]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>trimming = False</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>top = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>bottom = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>left = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>right = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>[hotkey]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>clipboard = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>imagefile = 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>activewin = 8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>[periodic]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>save_folder = C:\Users\u1601\Pictures</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>interval = 3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>stop_modifier = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>stop_fkey = 10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>target = -1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>numbering = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1102,733 +2034,1126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="2.625" customWidth="1"/>
-    <col min="3" max="3" width="4.625" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="16">
         <v>2</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="I25" s="8">
+        <v>1001</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20">
+        <v>1002</v>
+      </c>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="10" t="s">
+      <c r="I27" s="10">
+        <v>1011</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="10" t="s">
+    <row r="28" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="10" t="s">
+      <c r="H28" s="9"/>
+      <c r="I28" s="10">
+        <v>1012</v>
+      </c>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="H29" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="22">
-        <v>1001</v>
-      </c>
-      <c r="J25" s="13" t="s">
+      <c r="I29" s="22"/>
+      <c r="J29" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="27">
-        <v>1002</v>
-      </c>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="23">
-        <v>1011</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="23">
-        <v>1012</v>
-      </c>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="30" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="11"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="33" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="8" t="s">
+      <c r="I34" s="2"/>
+      <c r="J34" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="17"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="6">
+        <v>2</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="2">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" s="18"/>
+      <c r="J37" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="6">
+        <v>3</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" s="18"/>
+      <c r="J39" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="22"/>
+      <c r="J40" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="6">
+        <v>4</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="27"/>
+      <c r="J42" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="11"/>
+      <c r="H44" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="14"/>
+    </row>
+    <row r="46" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="6">
+        <v>5</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" s="29"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="29"/>
+    </row>
+    <row r="48" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="42"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="42"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="42"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="42"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="6">
         <v>1</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="2">
-        <v>2</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I37" s="26"/>
-      <c r="J37" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="11"/>
-    </row>
-    <row r="39" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="2">
-        <v>3</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I40" s="28"/>
-      <c r="J40" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="11"/>
-    </row>
-    <row r="42" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="2">
-        <v>4</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="I43" s="31"/>
-      <c r="J43" s="10"/>
-    </row>
-    <row r="44" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="I44" s="31"/>
-      <c r="J44" s="10"/>
-    </row>
-    <row r="45" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="11"/>
-    </row>
-    <row r="46" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="2">
-        <v>5</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="22"/>
-      <c r="J46" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="19"/>
-    </row>
-    <row r="48" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="11"/>
+      <c r="D53" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G53" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="H53" s="42"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="42"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="42"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="42"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="42"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E0683C-19A4-4C10-8F8A-5B5B9F7FA56F}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="2.625" customWidth="1"/>
+    <col min="3" max="3" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C4" s="35">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C5" s="36"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C6" s="37"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C7" s="35">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C8" s="36"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C9" s="37"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C10" s="31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C15" s="39">
+        <v>1</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C16" s="39">
+        <v>2</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C17" s="39">
+        <v>3</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C18" s="39">
+        <v>4</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C19" s="39">
+        <v>5</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C20" s="38">
+        <v>6</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C21" s="38">
+        <v>7</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@VBRT-NOCHK\!G\repos\pyscreenshot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\pyscreenshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A33F23A-4234-4FDB-9782-ABB2856F683F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="90" windowWidth="26565" windowHeight="15420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="90" windowWidth="26565" windowHeight="15420"/>
   </bookViews>
   <sheets>
-    <sheet name="設定項目（プロパティ）" sheetId="1" r:id="rId1"/>
-    <sheet name="ホット・キーについて" sheetId="2" r:id="rId2"/>
+    <sheet name="機能と実装状況" sheetId="3" r:id="rId1"/>
+    <sheet name="設定項目（プロパティ）" sheetId="1" r:id="rId2"/>
+    <sheet name="ホット・キーについて" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="199">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1008,11 +1008,328 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>■機能</t>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HELP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HELPを表示...</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン情報...</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境設定...</t>
+    <rPh sb="0" eb="4">
+      <t>カンキョウセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クイック設定</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウスカーソルキャプチャーを有効</t>
+    <rPh sb="14" eb="16">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遅延キャプチャーを有効</t>
+    <rPh sb="0" eb="2">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トリミングを有効</t>
+    <rPh sb="6" eb="8">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存先フォルダ</t>
+    <rPh sb="0" eb="3">
+      <t>ホゾンサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダを開く</t>
+    <rPh sb="5" eb="6">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定期実行設定...</t>
+    <rPh sb="0" eb="2">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリップボードへコピー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0: デスクトップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1: ディスプレイ 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2: アクティブウィンドウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装済み</t>
+    <rPh sb="0" eb="3">
+      <t>ジッソウズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windowsではmssの機能は動作しないので、コントロールは無効に設定する</t>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体試験</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>－</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定値の処理は確認済み
+実際のキャプチャー動作（開始/停止/周期）が未確認</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カクニンズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュウキ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ミカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認内容</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示内容</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定値のコントロールへの表示
+コントロールの状態取得</t>
+    <rPh sb="0" eb="3">
+      <t>セッテイチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態の切り替え
+設定ダイアログでの反映</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダの切り替え
+設定ダイアログでの反映</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューおよびホット・キーでの操作</t>
+    <rPh sb="15" eb="17">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションの終了</t>
+    <rPh sb="9" eb="11">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 機能</t>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1079,7 +1396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1197,13 +1514,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1335,6 +1798,87 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1355,6 +1899,231 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1362313</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="4810125"/>
+          <a:ext cx="1705213" cy="2886478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="4810125"/>
+          <a:ext cx="3771900" cy="2314575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="7210425"/>
+          <a:ext cx="3676650" cy="3743325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="7210425"/>
+          <a:ext cx="3676650" cy="3743325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="11153775"/>
+          <a:ext cx="3676650" cy="2219325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1373,7 +2142,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A7687A-4788-4614-B54F-24C954F60DE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9A7687A-4788-4614-B54F-24C954F60DE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2033,11 +2802,347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="2.625" customWidth="1"/>
+    <col min="3" max="3" width="4.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.875" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="62" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="62" customWidth="1"/>
+    <col min="8" max="8" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C3" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C4" s="46">
+        <v>1</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="59"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C5" s="47"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="C6" s="45">
+        <v>2</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="C7" s="46">
+        <v>3</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C8" s="48"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="C9" s="47"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="C10" s="45">
+        <v>4</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C11" s="45">
+        <v>5</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="58"/>
+    </row>
+    <row r="12" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C12" s="45">
+        <v>6</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C13" s="46">
+        <v>7</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C14" s="48"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" s="61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C15" s="47"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="H15" s="60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C16" s="46">
+        <v>8</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C17" s="48"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C18" s="47"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C19" s="45">
+        <v>9</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2883,11 +3988,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E0683C-19A4-4C10-8F8A-5B5B9F7FA56F}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>

--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\pyscreenshot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@VBRT-NOCHK\!G\repos\pyscreenshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFC26C3-441F-4952-B316-0B695F8B09B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="90" windowWidth="26565" windowHeight="15420"/>
+    <workbookView xWindow="645" yWindow="435" windowWidth="26565" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能と実装状況" sheetId="3" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="200">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1195,41 +1196,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設定値の処理は確認済み
-実際のキャプチャー動作（開始/停止/周期）が未確認</t>
-    <rPh sb="0" eb="2">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>カクニンズ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シュウキ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>ミカクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
@@ -1325,11 +1291,43 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>エクスプローラーで開く</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際のキャプチャー動作（開始/停止/周期）が未実装</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュウキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1793,10 +1791,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1914,7 +1912,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1958,7 +1962,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1990,19 +2000,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>410086</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>143395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F776FDDD-D419-C046-A4B6-8C95BB2B5B8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2021,12 +2037,19 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2552700" y="7210425"/>
-          <a:ext cx="3676650" cy="3743325"/>
+          <a:off x="2562225" y="7391400"/>
+          <a:ext cx="3658111" cy="3724795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2034,19 +2057,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>581536</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>143395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D71F9B-D0C9-D044-8688-0A7391541CCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2065,12 +2094,19 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6505575" y="7210425"/>
-          <a:ext cx="3676650" cy="3743325"/>
+          <a:off x="6515100" y="7391400"/>
+          <a:ext cx="3658111" cy="3724795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2080,17 +2116,23 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>400561</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>162232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{966B90C1-7BED-44D0-B108-C6D04EAD3EEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2109,12 +2151,19 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2552700" y="11153775"/>
-          <a:ext cx="3676650" cy="2219325"/>
+          <a:off x="2552700" y="10991850"/>
+          <a:ext cx="3658111" cy="2200582"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2142,7 +2191,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9A7687A-4788-4614-B54F-24C954F60DE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A7687A-4788-4614-B54F-24C954F60DE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2802,7 +2851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2827,7 +2876,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -2845,7 +2894,7 @@
         <v>184</v>
       </c>
       <c r="H3" s="70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -2879,7 +2928,7 @@
         <v>188</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -2897,7 +2946,7 @@
         <v>188</v>
       </c>
       <c r="H6" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -2947,7 +2996,7 @@
         <v>188</v>
       </c>
       <c r="H9" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -2965,7 +3014,7 @@
         <v>188</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -2977,14 +3026,16 @@
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G11" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="H11" s="58"/>
-    </row>
-    <row r="12" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="C12" s="45">
         <v>6</v>
       </c>
@@ -2999,7 +3050,7 @@
         <v>186</v>
       </c>
       <c r="H12" s="58" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -3019,7 +3070,7 @@
         <v>187</v>
       </c>
       <c r="H13" s="59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -3035,7 +3086,7 @@
         <v>187</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -3051,7 +3102,7 @@
         <v>187</v>
       </c>
       <c r="H15" s="60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -3071,7 +3122,7 @@
         <v>187</v>
       </c>
       <c r="H16" s="59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
@@ -3087,7 +3138,7 @@
         <v>187</v>
       </c>
       <c r="H17" s="61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
@@ -3103,7 +3154,7 @@
         <v>187</v>
       </c>
       <c r="H18" s="60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
@@ -3121,12 +3172,12 @@
         <v>187</v>
       </c>
       <c r="H19" s="58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3138,7 +3189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -3989,7 +4040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@VBRT-NOCHK\!G\repos\pyscreenshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFC26C3-441F-4952-B316-0B695F8B09B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82465EDC-F618-4BF1-889D-46899C46D5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="645" yWindow="435" windowWidth="26565" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1331,7 +1331,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1373,8 +1373,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1390,6 +1397,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1664,7 +1677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1877,6 +1890,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2855,7 +2874,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2959,13 +2978,13 @@
       <c r="E7" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="71" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2979,7 +2998,7 @@
         <v>181</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H8" s="61"/>
     </row>

--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@VBRT-NOCHK\!G\repos\pyscreenshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82465EDC-F618-4BF1-889D-46899C46D5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F85086C-2E5F-4DFA-8208-FB72C089B534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="645" yWindow="435" windowWidth="26565" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="202">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1185,10 +1185,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>○</t>
   </si>
   <si>
@@ -1299,27 +1295,63 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実際のキャプチャー動作（開始/停止/周期）が未実装</t>
+    <t>周期、ファイル名</t>
     <rPh sb="0" eb="2">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ドウサ</t>
+      <t>シュウキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※連番をキャプチャー時に検索しているので遅くなる（内部にメモりたい）</t>
+    <rPh sb="1" eb="3">
+      <t>レンバン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
     </rPh>
     <rPh sb="12" eb="14">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シュウキ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジッソウ</t>
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　最初に検索してメモる、保存時ファイルが既にあったなら再検索、なければそのまま</t>
+    <rPh sb="1" eb="3">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ホゾンジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>サイケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　保存フォルダが変更されたら再検索</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>サイケンサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1677,7 +1709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1896,6 +1928,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1920,13 +1967,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1362313</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152803</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1970,13 +2017,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2020,13 +2067,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>410086</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>143395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2077,13 +2124,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>581536</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>143395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2134,13 +2181,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>400561</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>162232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2871,10 +2918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2895,7 +2942,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -2913,7 +2960,7 @@
         <v>184</v>
       </c>
       <c r="H3" s="70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -2944,10 +2991,10 @@
         <v>181</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -2962,10 +3009,10 @@
         <v>181</v>
       </c>
       <c r="G6" s="57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H6" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -2998,7 +3045,7 @@
         <v>181</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H8" s="61"/>
     </row>
@@ -3012,10 +3059,10 @@
         <v>181</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H9" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3030,10 +3077,10 @@
         <v>181</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -3048,13 +3095,13 @@
         <v>181</v>
       </c>
       <c r="G11" s="57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C12" s="45">
         <v>6</v>
       </c>
@@ -3066,10 +3113,10 @@
         <v>181</v>
       </c>
       <c r="G12" s="57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H12" s="58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -3086,10 +3133,10 @@
         <v>181</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H13" s="59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -3102,10 +3149,10 @@
         <v>181</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -3118,10 +3165,10 @@
         <v>181</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H15" s="60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -3138,10 +3185,10 @@
         <v>181</v>
       </c>
       <c r="G16" s="63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H16" s="59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
@@ -3154,10 +3201,10 @@
         <v>181</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H17" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
@@ -3170,10 +3217,10 @@
         <v>181</v>
       </c>
       <c r="G18" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H18" s="60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
@@ -3188,15 +3235,61 @@
         <v>181</v>
       </c>
       <c r="G19" s="57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H19" s="58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C21" s="73"/>
+      <c r="D21" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="74"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="76"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="74"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="76"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C23" s="73"/>
+      <c r="D23" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="74"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="76"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3211,8 +3304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@VBRT-NOCHK\!G\repos\pyscreenshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F85086C-2E5F-4DFA-8208-FB72C089B534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844A1308-A412-409B-B9A0-0DF68E5C6BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="435" windowWidth="26565" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="435" windowWidth="26565" windowHeight="15420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能と実装状況" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="204">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -765,50 +765,6 @@
   </si>
   <si>
     <t>periodic_capture (bool)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>定期実行状態</t>
-    <rPh sb="0" eb="2">
-      <t>テイキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※起動時に取得する。ディスプレイの状態が変化した（数、位置）場合は、アプリを起動し直す。</t>
-    <rPh sb="1" eb="4">
-      <t>キドウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ナオ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1352,6 +1308,70 @@
     </rPh>
     <rPh sb="14" eb="17">
       <t>サイケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>periodic_interval_ms (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定期実行状態</t>
+    <rPh sb="0" eb="2">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ジッコウジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定期実行間隔(ms変換値)</t>
+    <rPh sb="0" eb="2">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヘンカンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※起動時に取得する。ディスプレイの状態が変化した（数、位置）場合は、アプリを起動し直す必要がある。</t>
+    <rPh sb="1" eb="4">
+      <t>キドウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1929,19 +1949,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2243,13 +2263,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2057401</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2920,7 +2940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2937,30 +2957,30 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" s="66" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D3" s="67" t="s">
         <v>106</v>
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G3" s="69" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H3" s="70" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -2968,16 +2988,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H4" s="59"/>
     </row>
@@ -2985,16 +3005,16 @@
       <c r="C5" s="47"/>
       <c r="D5" s="51"/>
       <c r="E5" s="52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G5" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" s="60" t="s">
         <v>187</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3002,17 +3022,17 @@
         <v>2</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G6" s="57" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H6" s="58" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3020,32 +3040,32 @@
         <v>3</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F7" s="72" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G7" s="72" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H7" s="71" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C8" s="48"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H8" s="61"/>
     </row>
@@ -3053,16 +3073,16 @@
       <c r="C9" s="47"/>
       <c r="D9" s="51"/>
       <c r="E9" s="52" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H9" s="60" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3070,17 +3090,17 @@
         <v>4</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -3088,17 +3108,17 @@
         <v>5</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G11" s="57" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -3106,17 +3126,17 @@
         <v>6</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G12" s="57" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H12" s="58" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -3124,51 +3144,51 @@
         <v>7</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H13" s="59" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C14" s="48"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C15" s="47"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H15" s="60" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -3179,48 +3199,48 @@
         <v>109</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F16" s="63" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G16" s="63" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H16" s="59" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C17" s="48"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F17" s="65" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H17" s="61" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C18" s="47"/>
       <c r="D18" s="51"/>
       <c r="E18" s="52" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G18" s="64" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H18" s="60" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
@@ -3228,68 +3248,46 @@
         <v>9</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G19" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H19" s="58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
+      <c r="H20" s="73"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C21" s="73"/>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="74" t="s">
+        <v>197</v>
+      </c>
+      <c r="H21" s="73"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D22" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="73"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D23" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C22" s="73"/>
-      <c r="D22" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C23" s="73"/>
-      <c r="D23" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="76"/>
+      <c r="H23" s="73"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
+      <c r="H24" s="73"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3302,10 +3300,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4062,7 +4060,7 @@
       <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="76" t="s">
         <v>0</v>
       </c>
       <c r="D52" s="33" t="s">
@@ -4080,7 +4078,7 @@
       <c r="J52" s="42"/>
     </row>
     <row r="53" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="6">
+      <c r="C53" s="16">
         <v>1</v>
       </c>
       <c r="D53" s="6" t="s">
@@ -4092,20 +4090,20 @@
       <c r="F53" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="G53" s="42" t="s">
-        <v>148</v>
+      <c r="G53" s="77" t="s">
+        <v>203</v>
       </c>
       <c r="H53" s="42"/>
       <c r="I53" s="43"/>
       <c r="J53" s="42"/>
     </row>
     <row r="54" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F54" s="14" t="s">
+      <c r="C54" s="4"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G54" s="42"/>
@@ -4114,32 +4112,56 @@
       <c r="J54" s="42"/>
     </row>
     <row r="55" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>200</v>
+      </c>
       <c r="G55" s="42"/>
       <c r="H55" s="42"/>
       <c r="I55" s="43"/>
       <c r="J55" s="42"/>
     </row>
     <row r="56" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
       <c r="G56" s="42"/>
       <c r="H56" s="42"/>
       <c r="I56" s="43"/>
       <c r="J56" s="42"/>
     </row>
     <row r="57" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="42"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="42"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
+    <row r="60" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4203,7 +4225,7 @@
         <v>37</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -4213,7 +4235,7 @@
         <v>110</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -4223,7 +4245,7 @@
         <v>108</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -4237,7 +4259,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -4247,7 +4269,7 @@
         <v>107</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -4257,12 +4279,12 @@
         <v>108</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C10" s="31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -4387,27 +4409,27 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">

--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@VBRT-NOCHK\!G\repos\pyscreenshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844A1308-A412-409B-B9A0-0DF68E5C6BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4C8451-6975-4051-87DC-F2897044BF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="435" windowWidth="26565" windowHeight="15420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="435" windowWidth="26565" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能と実装状況" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="208">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1068,14 +1068,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1: ディスプレイ 1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2: アクティブウィンドウ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
@@ -1182,43 +1174,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>状態の切り替え
-設定ダイアログでの反映</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォルダの切り替え
-設定ダイアログでの反映</t>
-    <rPh sb="5" eb="6">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニューおよびホット・キーでの操作</t>
     <rPh sb="15" eb="17">
       <t>ソウサ</t>
@@ -1261,57 +1216,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※連番をキャプチャー時に検索しているので遅くなる（内部にメモりたい）</t>
-    <rPh sb="1" eb="3">
-      <t>レンバン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オソ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ナイブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　最初に検索してメモる、保存時ファイルが既にあったなら再検索、なければそのまま</t>
-    <rPh sb="1" eb="3">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ホゾンジ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>サイケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　保存フォルダが変更されたら再検索</t>
-    <rPh sb="1" eb="3">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>サイケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>periodic_interval_ms (int)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1326,22 +1230,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>定期実行間隔(ms変換値)</t>
-    <rPh sb="0" eb="2">
-      <t>テイキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンカク</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ヘンカンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※起動時に取得する。ディスプレイの状態が変化した（数、位置）場合は、アプリを起動し直す必要がある。</t>
     <rPh sb="1" eb="4">
       <t>キドウジ</t>
@@ -1373,6 +1261,144 @@
     <rPh sb="43" eb="45">
       <t>ヒツヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遅延時間(ミリ秒変換値)</t>
+    <rPh sb="0" eb="2">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヘンカンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定期実行間隔(ミリ秒変換値)</t>
+    <rPh sb="0" eb="2">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ヘンカンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delayed_time_ms (int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャプチャー終了時に音を鳴らす</t>
+    <rPh sb="6" eb="9">
+      <t>シュウリョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダの切り替え，設定ダイアログでの反映</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態の切り替え，設定ダイアログでの反映</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連番をキャプチャー時に検索しているので遅くなる（内部にメモりたい）</t>
+    <rPh sb="0" eb="2">
+      <t>レンバン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存フォルダが変更されたら再検索</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>サイケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログファイル（デバッグ用）</t>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1: ディスプレイ 1～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n: アクティブウィンドウ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1383,7 +1409,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1432,8 +1458,15 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1458,8 +1491,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1723,13 +1768,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1928,21 +1999,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1955,14 +2011,65 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1987,13 +2094,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1362313</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>152803</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2037,13 +2144,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2087,13 +2194,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>410086</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>143395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2144,13 +2251,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>581536</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>143395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2201,13 +2308,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>400561</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>162232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2263,13 +2370,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2057401</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2938,11 +3045,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2962,59 +3067,59 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="H3" s="70" t="s">
-        <v>186</v>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="88" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="89" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C4" s="46">
         <v>1</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="G4" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="H4" s="59"/>
+      <c r="F4" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="80"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C5" s="47"/>
-      <c r="D5" s="51"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="52" t="s">
         <v>163</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G5" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="60" t="s">
         <v>185</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3026,268 +3131,293 @@
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="57" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G6" s="57" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H6" s="58" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="C7" s="46">
         <v>3</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="81" t="s">
         <v>165</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="72" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="72" t="s">
-        <v>183</v>
-      </c>
-      <c r="H7" s="71" t="s">
-        <v>180</v>
+      <c r="F7" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C8" s="48"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54" t="s">
+      <c r="D8" s="83"/>
+      <c r="E8" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="77"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C9" s="48"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="F8" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="H8" s="61"/>
-    </row>
-    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="C9" s="47"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52" t="s">
+      <c r="F9" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="61"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C10" s="47"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="F9" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="C10" s="45">
-        <v>4</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>190</v>
+      <c r="F10" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C11" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="57" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G11" s="57" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C12" s="45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="57" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G12" s="57" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H12" s="58" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C13" s="46">
+      <c r="C13" s="45">
+        <v>6</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C14" s="46">
         <v>7</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D14" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E14" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="H13" s="59" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C14" s="48"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54" t="s">
+      <c r="F14" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C15" s="48"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C16" s="47"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C17" s="46">
+        <v>8</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C18" s="48"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C19" s="47"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C20" s="45">
+        <v>9</v>
+      </c>
+      <c r="D20" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="H14" s="61" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C15" s="47"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="G15" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="H15" s="60" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C16" s="46">
-        <v>8</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="H16" s="59" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C17" s="48"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="G17" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="H17" s="61" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C18" s="47"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="F18" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C19" s="45">
-        <v>9</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="H19" s="58" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H20" s="73"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="58" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D21" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="H21" s="73"/>
+      <c r="H21" s="68"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D22" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="73"/>
+      <c r="C22" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="H22" s="68"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C23" s="73"/>
       <c r="D23" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="H23" s="73"/>
+        <v>203</v>
+      </c>
+      <c r="H23" s="68"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H24" s="73"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>193</v>
+      <c r="C24" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="H24" s="68"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C25" s="73"/>
+      <c r="H25" s="68"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H26" s="68"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3300,9 +3430,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
@@ -4060,7 +4190,7 @@
       <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="76" t="s">
+      <c r="C52" s="70" t="s">
         <v>0</v>
       </c>
       <c r="D52" s="33" t="s">
@@ -4090,8 +4220,8 @@
       <c r="F53" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="G53" s="77" t="s">
-        <v>203</v>
+      <c r="G53" s="71" t="s">
+        <v>195</v>
       </c>
       <c r="H53" s="42"/>
       <c r="I53" s="43"/>
@@ -4101,24 +4231,24 @@
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G54" s="42"/>
+        <v>198</v>
+      </c>
+      <c r="G54" s="71"/>
       <c r="H54" s="42"/>
       <c r="I54" s="43"/>
       <c r="J54" s="42"/>
     </row>
     <row r="55" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="23"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>200</v>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="G55" s="42"/>
       <c r="H55" s="42"/>
@@ -4126,10 +4256,14 @@
       <c r="J55" s="42"/>
     </row>
     <row r="56" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="G56" s="42"/>
       <c r="H56" s="42"/>
       <c r="I56" s="43"/>
@@ -4156,12 +4290,22 @@
       <c r="J58" s="42"/>
     </row>
     <row r="59" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="42"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
+    <row r="61" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
         <v>138</v>
       </c>
     </row>

--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@VBRT-NOCHK\!G\repos\pyscreenshot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\pyscreenshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4C8451-6975-4051-87DC-F2897044BF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="435" windowWidth="26565" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="435" windowWidth="26565" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="機能と実装状況" sheetId="3" r:id="rId1"/>
@@ -1405,7 +1404,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1800,7 +1799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2026,15 +2025,6 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2050,12 +2040,6 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2070,6 +2054,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2108,7 +2113,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2158,7 +2163,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2213,7 @@
         <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F776FDDD-D419-C046-A4B6-8C95BB2B5B8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F776FDDD-D419-C046-A4B6-8C95BB2B5B8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +2270,7 @@
         <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D71F9B-D0C9-D044-8688-0A7391541CCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0D71F9B-D0C9-D044-8688-0A7391541CCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +2327,7 @@
         <xdr:cNvPr id="16" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{966B90C1-7BED-44D0-B108-C6D04EAD3EEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{966B90C1-7BED-44D0-B108-C6D04EAD3EEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2384,7 +2389,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A7687A-4788-4614-B54F-24C954F60DE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9A7687A-4788-4614-B54F-24C954F60DE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3044,10 +3049,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3071,20 +3078,20 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="88" t="s">
+      <c r="E3" s="82"/>
+      <c r="F3" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="84" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3092,23 +3099,23 @@
       <c r="C4" s="46">
         <v>1</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="80"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C5" s="47"/>
-      <c r="D5" s="82"/>
+      <c r="D5" s="79"/>
       <c r="E5" s="52" t="s">
         <v>163</v>
       </c>
@@ -3144,7 +3151,7 @@
       <c r="C7" s="46">
         <v>3</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="85" t="s">
         <v>165</v>
       </c>
       <c r="E7" s="50" t="s">
@@ -3162,21 +3169,21 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C8" s="48"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="75" t="s">
+      <c r="D8" s="86"/>
+      <c r="E8" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="F8" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="77"/>
+      <c r="F8" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="91"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C9" s="48"/>
-      <c r="D9" s="84"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="54" t="s">
         <v>167</v>
       </c>
@@ -3190,7 +3197,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C10" s="47"/>
-      <c r="D10" s="82"/>
+      <c r="D10" s="88"/>
       <c r="E10" s="52" t="s">
         <v>168</v>
       </c>
@@ -3429,11 +3436,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4318,7 +4325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\pyscreenshot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@VBRT-NOCHK\!G\repos\pyscreenshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69A4E05-1C1C-4526-87C2-86E4A60B5C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="435" windowWidth="26565" windowHeight="15420"/>
+    <workbookView xWindow="645" yWindow="435" windowWidth="26565" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能と実装状況" sheetId="3" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="208">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1404,7 +1405,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1799,7 +1800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2055,25 +2056,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2098,22 +2090,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1362313</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152803</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1534036</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>143395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEC4058-E24F-4DE4-A7EA-15F75D665B0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,35 +2127,42 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="409575" y="4810125"/>
-          <a:ext cx="1705213" cy="2886478"/>
+          <a:off x="419100" y="8591550"/>
+          <a:ext cx="3658111" cy="3724795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2305561</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>143395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90969558-FBDE-4E36-9D7D-218EFDA1E679}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,35 +2184,42 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2552700" y="4810125"/>
-          <a:ext cx="3771900" cy="2314575"/>
+          <a:off x="5143500" y="8591550"/>
+          <a:ext cx="3658111" cy="3724795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>410086</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>143395</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1534036</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>162232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
+        <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F776FDDD-D419-C046-A4B6-8C95BB2B5B8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0F2C94-954E-417A-9D01-FA1F80428460}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,8 +2241,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2562225" y="7391400"/>
-          <a:ext cx="3658111" cy="3724795"/>
+          <a:off x="419100" y="12534900"/>
+          <a:ext cx="3658111" cy="2200582"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2254,23 +2260,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>581536</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>143395</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
+        <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0D71F9B-D0C9-D044-8688-0A7391541CCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122FE507-7A10-4AC7-8D88-4DE8247CCFCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,19 +2298,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6515100" y="7391400"/>
-          <a:ext cx="3658111" cy="3724795"/>
+          <a:off x="419100" y="14935200"/>
+          <a:ext cx="3771900" cy="2314575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2312,22 +2311,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400561</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>162232</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10075</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>162328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
+        <xdr:cNvPr id="11" name="図 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{966B90C1-7BED-44D0-B108-C6D04EAD3EEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6B6F11-0635-AD27-BC22-9F746A88AA3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,19 +2348,262 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2552700" y="10991850"/>
-          <a:ext cx="3658111" cy="2200582"/>
+          <a:off x="2562225" y="5334000"/>
+          <a:ext cx="3943900" cy="2886478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1372289</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>163092</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3170F999-9C3C-5A2D-30CB-E738F4CB42CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="5334000"/>
+          <a:ext cx="1705664" cy="2887242"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>105343</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>162328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3450238-BCD8-5BE6-3CCF-32A9357047E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="5334000"/>
+          <a:ext cx="4067743" cy="2886478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>362504</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>162328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D31F30E8-4F58-EC8B-2230-010967B88D45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10982325" y="5334000"/>
+          <a:ext cx="3972479" cy="2886478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514833</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>143278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DF9EB9-BFC0-1644-2809-496FD1392DEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10963275" y="8401050"/>
+          <a:ext cx="3458058" cy="2886478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514833</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>152804</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3AE62E-BF8B-5F3F-978C-D8F4BD350C5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10963275" y="11487150"/>
+          <a:ext cx="3458058" cy="2896004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2389,7 +2631,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9A7687A-4788-4614-B54F-24C954F60DE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A7687A-4788-4614-B54F-24C954F60DE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3049,11 +3291,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3065,19 +3307,23 @@
     <col min="6" max="6" width="9" style="62" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="62" customWidth="1"/>
     <col min="8" max="8" width="40.625" customWidth="1"/>
+    <col min="10" max="11" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="80" t="s">
         <v>160</v>
       </c>
@@ -3095,7 +3341,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C4" s="46">
         <v>1</v>
       </c>
@@ -3113,7 +3359,7 @@
       </c>
       <c r="H4" s="77"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C5" s="47"/>
       <c r="D5" s="79"/>
       <c r="E5" s="52" t="s">
@@ -3129,7 +3375,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="C6" s="45">
         <v>2</v>
       </c>
@@ -3147,11 +3393,11 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="C7" s="46">
         <v>3</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="49" t="s">
         <v>165</v>
       </c>
       <c r="E7" s="50" t="s">
@@ -3167,23 +3413,23 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C8" s="48"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="89" t="s">
+      <c r="D8" s="85"/>
+      <c r="E8" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="90" t="s">
+      <c r="G8" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="H8" s="91"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H8" s="88"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C9" s="48"/>
-      <c r="D9" s="87"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="54" t="s">
         <v>167</v>
       </c>
@@ -3195,9 +3441,9 @@
       </c>
       <c r="H9" s="61"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C10" s="47"/>
-      <c r="D10" s="88"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="52" t="s">
         <v>168</v>
       </c>
@@ -3211,7 +3457,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C11" s="45">
         <v>4</v>
       </c>
@@ -3229,7 +3475,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C12" s="45">
         <v>5</v>
       </c>
@@ -3247,7 +3493,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C13" s="45">
         <v>6</v>
       </c>
@@ -3265,7 +3511,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C14" s="46">
         <v>7</v>
       </c>
@@ -3285,7 +3531,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C15" s="48"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54" t="s">
@@ -3301,7 +3547,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C16" s="47"/>
       <c r="D16" s="51"/>
       <c r="E16" s="52" t="s">
@@ -3436,7 +3682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4325,7 +4571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@VBRT-NOCHK\!G\repos\pyscreenshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69A4E05-1C1C-4526-87C2-86E4A60B5C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D8491D-DF97-4165-B02B-1944533F1521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="435" windowWidth="26565" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="315" windowWidth="24000" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能と実装状況" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="237">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1～6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開始番号</t>
     <rPh sb="0" eb="2">
       <t>カイシ</t>
@@ -127,9 +123,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RB_GROUP</t>
-  </si>
-  <si>
     <t>その他の設定</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -145,13 +138,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1～600(秒)</t>
-    <rPh sb="6" eb="7">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>有効</t>
     <rPh sb="0" eb="2">
       <t>ユウコウ</t>
@@ -171,10 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>"F1"～"F12"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アクティブウィンドウ</t>
   </si>
   <si>
@@ -378,10 +360,6 @@
     <t>spin_ctrl_sequence_digits</t>
   </si>
   <si>
-    <t>0～100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>sequence_digits (int)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -451,13 +429,6 @@
     <t>spin_ctrl_periodic_interval</t>
   </si>
   <si>
-    <t>1～3600(秒)</t>
-    <rPh sb="7" eb="8">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>choice_periodic_stopkey_modifire</t>
   </si>
   <si>
@@ -486,19 +457,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>none,shift,ctrl,alt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1～ｎ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -681,19 +644,6 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>ゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・環境設定ダイアログを'OK'で閉じた時</t>
-    <rPh sb="1" eb="5">
-      <t>カンキョウセッテイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>トキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1188,10 +1138,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2. メニュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1. 機能</t>
     <rPh sb="3" eb="5">
       <t>キノウ</t>
@@ -1216,10 +1162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>periodic_interval_ms (int)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>定期実行状態</t>
     <rPh sb="0" eb="2">
       <t>テイキ</t>
@@ -1351,38 +1293,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>連番をキャプチャー時に検索しているので遅くなる（内部にメモりたい）</t>
-    <rPh sb="0" eb="2">
-      <t>レンバン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オソ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ナイブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保存フォルダが変更されたら再検索</t>
-    <rPh sb="0" eb="2">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>サイケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>★</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1399,6 +1309,393 @@
   </si>
   <si>
     <t>n: アクティブウィンドウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦[定期実行設定]メニュー（ダイアログ）</t>
+    <rPh sb="2" eb="4">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[メイン]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①[Help]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④[クイック設定]</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤[保存先フォルダ]</t>
+    <rPh sb="2" eb="5">
+      <t>ホゾンサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥[フォルダを開く]</t>
+    <rPh sb="7" eb="8">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②[バージョン情報]</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③[環境設定]</t>
+    <rPh sb="2" eb="6">
+      <t>カンキョウセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑧[クリップボードへコピー]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑨[PNGファイルへ保存]</t>
+    <rPh sb="10" eb="12">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◯</t>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>periodic_interval_ms (int)</t>
+  </si>
+  <si>
+    <t>※設定値変更時に再計算</t>
+    <rPh sb="1" eb="4">
+      <t>セッテイチ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヘンコウジ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サイケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Quick</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RB_GROUP (0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         (1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RB_GROUP (False)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"SS"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. メニュー（ダイアログ）デザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定期実行の停止</t>
+    <rPh sb="0" eb="2">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"Fn" (n=1～12)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし、Shift、Ctrl、Alt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HK_MOD_NONE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・設定ダイアログを'OK'で閉じた時</t>
+    <rPh sb="1" eb="3">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1～6 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(6)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RB_GROUP </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(0)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(True)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0～100 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(0)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>False</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1～600(秒) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(5)</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0～100(pixel) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(0)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"F1(0)"～"F12(11)" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>("F9")</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※デフォルト値</t>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1～3600(秒) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(3)</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>none(0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,shift(1),ctrl(2),alt(3)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"F1(0)"～"F12(11)" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="BIZ UDゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>("F12")</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1409,7 +1706,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1465,8 +1762,37 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1500,6 +1826,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1800,7 +2132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1822,76 +2154,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1915,12 +2202,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1928,9 +2209,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2017,9 +2295,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2067,6 +2342,117 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2091,21 +2477,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1534036</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>143395</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1295627</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66993</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="56" name="図 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEC4058-E24F-4DE4-A7EA-15F75D665B0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7393F9-6659-487F-BD94-749194FB02A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,42 +2513,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="8591550"/>
-          <a:ext cx="3658111" cy="3724795"/>
+          <a:off x="419100" y="5505450"/>
+          <a:ext cx="1629002" cy="2276793"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2305561</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>410086</xdr:colOff>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>143395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="62" name="図 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90969558-FBDE-4E36-9D7D-218EFDA1E679}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B577C00E-F641-421D-94A2-BD18C7E01DC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2184,7 +2563,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5143500" y="8591550"/>
+          <a:off x="2562225" y="6534150"/>
           <a:ext cx="3658111" cy="3724795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2192,9 +2571,7 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2203,23 +2580,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1534036</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>162232</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581536</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>143395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
+        <xdr:cNvPr id="64" name="図 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0F2C94-954E-417A-9D01-FA1F80428460}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7978443-264C-40B7-99F6-5FBB84222D5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,17 +2618,15 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="12534900"/>
-          <a:ext cx="3658111" cy="2200582"/>
+          <a:off x="6515100" y="6534150"/>
+          <a:ext cx="3658111" cy="3724795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2260,23 +2635,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1647825</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>410086</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>162232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
+        <xdr:cNvPr id="68" name="図 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122FE507-7A10-4AC7-8D88-4DE8247CCFCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1348FD-C72E-4068-AA91-9FFE195366E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2298,12 +2673,17 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="14935200"/>
-          <a:ext cx="3771900" cy="2314575"/>
+          <a:off x="2562225" y="12877800"/>
+          <a:ext cx="3658111" cy="2200582"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2312,21 +2692,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>10075</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>162328</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1609947</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47701</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
+        <xdr:cNvPr id="69" name="図 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6B6F11-0635-AD27-BC22-9F746A88AA3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101CF614-3F1E-4B67-9778-83685F5FE93F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,8 +2728,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2562225" y="5334000"/>
-          <a:ext cx="3943900" cy="2886478"/>
+          <a:off x="2562225" y="5505450"/>
+          <a:ext cx="1590897" cy="543001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2360,23 +2740,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1372289</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>163092</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2410350</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95644</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
+        <xdr:cNvPr id="73" name="図 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3170F999-9C3C-5A2D-30CB-E738F4CB42CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35C8024-5A8D-F316-3BDD-960EE652B63B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,35 +2778,40 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="5334000"/>
-          <a:ext cx="1705664" cy="2887242"/>
+          <a:off x="5143500" y="5505450"/>
+          <a:ext cx="3762900" cy="2819794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>105343</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>162328</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2286316</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
+        <xdr:cNvPr id="74" name="図 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3450238-BCD8-5BE6-3CCF-32A9357047E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813D79AC-BD5C-4B4E-9BE3-C7F249C7C89B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,8 +2833,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6515100" y="5334000"/>
-          <a:ext cx="4067743" cy="2886478"/>
+          <a:off x="2562225" y="6362700"/>
+          <a:ext cx="2267266" cy="895475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2460,23 +2845,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>362504</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>162328</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2219632</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114337</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18">
+        <xdr:cNvPr id="75" name="図 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D31F30E8-4F58-EC8B-2230-010967B88D45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157FF887-02D5-4AF8-9C74-4401FDBB1C0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,8 +2883,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10982325" y="5334000"/>
-          <a:ext cx="3972479" cy="2886478"/>
+          <a:off x="2562225" y="7562850"/>
+          <a:ext cx="2200582" cy="266737"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2510,23 +2895,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>514833</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>143278</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2314895</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152466</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20">
+        <xdr:cNvPr id="78" name="図 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DF9EB9-BFC0-1644-2809-496FD1392DEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EEAD5BD-DC8B-4C55-A9EE-C2476A059921}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,8 +2933,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10963275" y="8401050"/>
-          <a:ext cx="3458058" cy="2886478"/>
+          <a:off x="2562225" y="8077200"/>
+          <a:ext cx="2295845" cy="476316"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2560,23 +2945,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>514833</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>152804</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1448049</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
+        <xdr:cNvPr id="81" name="図 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3AE62E-BF8B-5F3F-978C-D8F4BD350C5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5123845-2B00-4D7A-BF85-4CDC4F57F92F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2598,8 +2983,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10963275" y="11487150"/>
-          <a:ext cx="3458058" cy="2896004"/>
+          <a:off x="419100" y="8248650"/>
+          <a:ext cx="1781424" cy="895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1448049</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="図 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810D257F-3E35-4E07-A2EA-C2FE00759164}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="9448800"/>
+          <a:ext cx="1781424" cy="895475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2961,7 +3396,7 @@
               <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
               <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>stop_fkey = 10</a:t>
+            <a:t>stop_fkey = 11</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3292,386 +3727,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="2.625" customWidth="1"/>
     <col min="3" max="3" width="4.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.875" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="62" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="62" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="44" customWidth="1"/>
     <col min="8" max="8" width="40.625" customWidth="1"/>
-    <col min="10" max="11" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C3" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="63"/>
+      <c r="F3" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="58"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C5" s="29"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="C6" s="27">
+        <v>2</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="C7" s="28">
+        <v>3</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C8" s="30"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="69"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C9" s="30"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="43"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C10" s="29"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+      <c r="F10" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C11" s="27">
+        <v>4</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" s="40" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C3" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" s="83" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C4" s="46">
-        <v>1</v>
-      </c>
-      <c r="D4" s="78" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C12" s="27">
+        <v>5</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E12" s="38"/>
+      <c r="F12" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C13" s="27">
+        <v>6</v>
+      </c>
+      <c r="D13" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4" s="76" t="s">
+      <c r="E13" s="38"/>
+      <c r="F13" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C14" s="28">
+        <v>7</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C15" s="30"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C16" s="29"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C17" s="28">
+        <v>8</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C18" s="30"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C19" s="29"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C20" s="27">
+        <v>9</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="77"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C5" s="47"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="G5" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="C6" s="45">
-        <v>2</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="G6" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="C7" s="46">
-        <v>3</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="67" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" s="66" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C8" s="48"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86" t="s">
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H21" s="50"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C22" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="H22" s="50"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C23" s="54"/>
+      <c r="H23" s="50"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C26" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" s="70"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E31" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E38" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="F8" s="87" t="s">
-        <v>177</v>
-      </c>
-      <c r="G8" s="87" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" s="88"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C9" s="48"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="61"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C10" s="47"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="G10" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="H10" s="60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C11" s="45">
-        <v>4</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="H11" s="58" t="s">
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E41" s="26" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C12" s="45">
-        <v>5</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="H12" s="58" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C13" s="45">
-        <v>6</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="G13" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="58" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C14" s="46">
-        <v>7</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="H14" s="59" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C15" s="48"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="F15" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="H15" s="61" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C16" s="47"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="F16" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="G16" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C17" s="46">
-        <v>8</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="F17" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="G17" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="H17" s="59" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C18" s="48"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="F18" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="G18" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="H18" s="61" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C19" s="47"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="G19" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C20" s="45">
-        <v>9</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="H20" s="58" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H21" s="68"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C22" s="72" t="s">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C42" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E46" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C49" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="D22" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="H22" s="68"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C23" s="73"/>
-      <c r="D23" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="H23" s="68"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C24" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="D24" s="69" t="s">
-        <v>205</v>
-      </c>
-      <c r="H24" s="68"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C25" s="73"/>
-      <c r="H25" s="68"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H26" s="68"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>189</v>
-      </c>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E69" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G73" s="70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3686,7 +4146,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3696,20 +4156,20 @@
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="48.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3726,16 +4186,16 @@
         <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3748,432 +4208,460 @@
       <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7" t="s">
-        <v>57</v>
+      <c r="F4" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="87"/>
+      <c r="H4" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="85" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="9" t="s">
-        <v>57</v>
+      <c r="G5" s="91"/>
+      <c r="H5" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="93" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="90" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="91"/>
+      <c r="H6" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90" t="s">
         <v>60</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="9" t="s">
-        <v>63</v>
+      <c r="F7" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="91"/>
+      <c r="H7" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="93" t="s">
+        <v>224</v>
+      </c>
+      <c r="J7" s="90" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="9"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="94" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" s="90"/>
     </row>
     <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="11" t="s">
-        <v>40</v>
+      <c r="G9" s="72"/>
+      <c r="H9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="11" t="s">
-        <v>68</v>
+      <c r="G10" s="72"/>
+      <c r="H10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="11" t="s">
-        <v>70</v>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="72"/>
+      <c r="H11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="14"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="16">
+      <c r="C13" s="10">
         <v>2</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="17" t="s">
-        <v>41</v>
+        <v>93</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="11" t="s">
-        <v>73</v>
+        <v>94</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="103" t="s">
+        <v>228</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="14"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="17" t="s">
-        <v>42</v>
+      <c r="G16" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="11" t="s">
-        <v>43</v>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="72"/>
+      <c r="H17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="14"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="17" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="104" t="s">
+        <v>227</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="11" t="s">
-        <v>48</v>
+      <c r="F20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="72"/>
+      <c r="H20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11"/>
+      <c r="F21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="72"/>
+      <c r="H21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="11"/>
+      <c r="F22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="72"/>
+      <c r="H22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="11"/>
+      <c r="F23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="72"/>
+      <c r="H23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="14"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="8">
-        <v>1001</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="F25" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="87"/>
+      <c r="H25" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" s="85" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="20">
-        <v>1002</v>
-      </c>
-      <c r="J26" s="19"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="95" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" s="88"/>
     </row>
     <row r="27" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="10">
-        <v>1011</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>45</v>
+      <c r="F27" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="91"/>
+      <c r="H27" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" s="90" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10">
-        <v>1012</v>
-      </c>
-      <c r="J28" s="9"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="J28" s="90"/>
     </row>
     <row r="29" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="11" t="s">
-        <v>46</v>
+      <c r="F29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="72"/>
+      <c r="H29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="23"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="14"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G31" s="44"/>
+      <c r="I31" s="105" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G32" s="44"/>
     </row>
     <row r="33" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>55</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G33" s="44"/>
     </row>
     <row r="34" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="2" t="s">
@@ -4188,15 +4676,15 @@
       <c r="F34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="76"/>
+      <c r="H34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="2"/>
       <c r="J34" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4204,362 +4692,366 @@
         <v>1</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="17" t="s">
-        <v>49</v>
+      <c r="G35" s="77"/>
+      <c r="H35" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="14"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="6">
         <v>2</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="17" t="s">
-        <v>50</v>
+      <c r="G37" s="77"/>
+      <c r="H37" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="14"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
     </row>
     <row r="39" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="6">
         <v>3</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E39" s="6"/>
-      <c r="F39" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="17" t="s">
-        <v>91</v>
+      <c r="F39" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="79"/>
+      <c r="H39" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="22"/>
-      <c r="J40" s="11" t="s">
-        <v>92</v>
+      <c r="F40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="80"/>
+      <c r="H40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="14"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="6">
         <v>4</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E42" s="6"/>
-      <c r="F42" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H42" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="I42" s="27"/>
-      <c r="J42" s="17" t="s">
-        <v>51</v>
+      <c r="F42" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="79"/>
+      <c r="H42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I43" s="12"/>
-      <c r="J43" s="11"/>
+      <c r="F43" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="80"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J43" s="7"/>
     </row>
     <row r="44" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I44" s="12"/>
-      <c r="J44" s="11"/>
+      <c r="F44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="80"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44" s="7"/>
     </row>
     <row r="45" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="14"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
     </row>
     <row r="46" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="6">
         <v>5</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E46" s="6"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="8"/>
-      <c r="J46" s="7" t="s">
-        <v>52</v>
+      <c r="F46" s="83"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="I46" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="J46" s="85" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="H47" s="29"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="29"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="I47" s="96" t="s">
+        <v>211</v>
+      </c>
+      <c r="J47" s="84"/>
     </row>
     <row r="48" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="14"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
     </row>
     <row r="49" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="42"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="J49" s="25"/>
     </row>
     <row r="50" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="42"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
     </row>
     <row r="51" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="42"/>
+        <v>131</v>
+      </c>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
     </row>
     <row r="52" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="70" t="s">
+      <c r="C52" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="F52" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="42"/>
+      <c r="D52" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" s="75"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
     </row>
     <row r="53" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="16">
+      <c r="C53" s="10">
         <v>1</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="G53" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="H53" s="42"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="42"/>
+        <v>132</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G53" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G54" s="71"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="42"/>
+      <c r="E54" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G54" s="86" t="s">
+        <v>208</v>
+      </c>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
     </row>
     <row r="55" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="42"/>
+      <c r="E55" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G55" s="71"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
     </row>
     <row r="56" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C56" s="23"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="42"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G56" s="86" t="s">
+        <v>208</v>
+      </c>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
     </row>
     <row r="57" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="42"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="42"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
     </row>
     <row r="59" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="42"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
     </row>
     <row r="60" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4572,10 +5064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4589,254 +5081,296 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>20</v>
+      <c r="D3" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="35">
+      <c r="C4" s="20">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>151</v>
+        <v>18</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C5" s="36"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>152</v>
+      <c r="E5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="37"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>153</v>
+      <c r="C6" s="22"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C7" s="35">
+      <c r="C7" s="20">
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>154</v>
+        <v>101</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C8" s="36"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>155</v>
+      <c r="E8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C9" s="37"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>156</v>
+      <c r="C9" s="22"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C10" s="31" t="s">
-        <v>150</v>
+      <c r="C10" s="16" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C11" s="1"/>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+      <c r="C13" s="97">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="98" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C17" s="99">
+        <v>1</v>
+      </c>
+      <c r="D17" s="100" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="100" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" s="100" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C18" s="99">
+        <v>2</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C19" s="99">
+        <v>3</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C20" s="99">
+        <v>4</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="34" t="s">
+      <c r="F20" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C21" s="99">
+        <v>5</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C22" s="99">
+        <v>6</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C15" s="39">
-        <v>1</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="41" t="s">
+      <c r="E22" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C23" s="99">
+        <v>7</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="40" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C16" s="39">
-        <v>2</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="40" t="s">
+      <c r="E23" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C24" s="99">
+        <v>8</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C17" s="39">
-        <v>3</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="40" t="s">
+      <c r="E24" s="17" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C18" s="39">
-        <v>4</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C19" s="39">
-        <v>5</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C20" s="38">
-        <v>6</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C21" s="38">
-        <v>7</v>
-      </c>
-      <c r="D21" s="32" t="s">
+      <c r="F24" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D27" t="s">
-        <v>148</v>
-      </c>
-    </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
-        <v>157</v>
+      <c r="D29" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D31" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D34" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@VBRT-NOCHK\!G\repos\pyscreenshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D8491D-DF97-4165-B02B-1944533F1521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA9BD64-ADBA-418D-A652-C8082DC9A474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="315" windowWidth="24000" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3729,7 +3729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@VBRT-NOCHK\!G\repos\pyscreenshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA9BD64-ADBA-418D-A652-C8082DC9A474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB31055-AE1A-4D08-B989-8B8ED325E9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="315" windowWidth="24000" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="233">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -927,17 +927,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HELP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HELPを表示...</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バージョン情報...</t>
     <rPh sb="5" eb="7">
       <t>ジョウホウ</t>
@@ -1032,13 +1021,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未実装</t>
-    <rPh sb="0" eb="3">
-      <t>ミジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実装済み</t>
     <rPh sb="0" eb="3">
       <t>ジッソウズ</t>
@@ -1046,29 +1028,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Windowsではmssの機能は動作しないので、コントロールは無効に設定する</t>
-    <rPh sb="13" eb="15">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ムコウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>単体試験</t>
     <rPh sb="0" eb="2">
       <t>タンタイ</t>
@@ -1107,23 +1066,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設定値のコントロールへの表示
-コントロールの状態取得</t>
-    <rPh sb="0" eb="3">
-      <t>セッテイチ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニューおよびホット・キーでの操作</t>
     <rPh sb="15" eb="17">
       <t>ソウサ</t>
@@ -1289,17 +1231,6 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>★</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログファイル（デバッグ用）</t>
-    <rPh sb="11" eb="12">
-      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1698,6 +1629,37 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>設定値のコントロールへの表示、取得</t>
+    <rPh sb="0" eb="3">
+      <t>セッテイチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントロールは無効に設定する(*1)</t>
+    <rPh sb="7" eb="9">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*1 Windowsではmssのマウスキャプチャーフラグは動作しないため</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★ログファイル（デバッグ用）</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1706,7 +1668,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1791,8 +1753,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1814,12 +1783,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2132,7 +2095,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2214,75 +2177,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2298,57 +2195,6 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2358,70 +2204,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -2430,21 +2252,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2452,6 +2268,126 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2475,23 +2411,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19054</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1295627</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>66993</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>463379</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>113816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="図 55">
+        <xdr:cNvPr id="62" name="図 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7393F9-6659-487F-BD94-749194FB02A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B577C00E-F641-421D-94A2-BD18C7E01DC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2513,35 +2449,40 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="5505450"/>
-          <a:ext cx="1629002" cy="2276793"/>
+          <a:off x="2324104" y="7734300"/>
+          <a:ext cx="3292300" cy="3352316"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>410086</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>143395</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>387175</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>113816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="図 61">
+        <xdr:cNvPr id="64" name="図 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B577C00E-F641-421D-94A2-BD18C7E01DC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7978443-264C-40B7-99F6-5FBB84222D5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2563,8 +2504,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2562225" y="6534150"/>
-          <a:ext cx="3658111" cy="3724795"/>
+          <a:off x="5934075" y="7734300"/>
+          <a:ext cx="3292300" cy="3352316"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2580,23 +2521,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>581536</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>143395</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>463375</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>113624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="図 63">
+        <xdr:cNvPr id="68" name="図 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7978443-264C-40B7-99F6-5FBB84222D5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1348FD-C72E-4068-AA91-9FFE195366E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,8 +2559,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6515100" y="6534150"/>
-          <a:ext cx="3658111" cy="3724795"/>
+          <a:off x="2324100" y="11677650"/>
+          <a:ext cx="3292300" cy="1980524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2637,21 +2578,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>410086</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>162232</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1609947</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47701</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="図 67">
+        <xdr:cNvPr id="69" name="図 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1348FD-C72E-4068-AA91-9FFE195366E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101CF614-3F1E-4B67-9778-83685F5FE93F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,8 +2614,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2562225" y="12877800"/>
-          <a:ext cx="3658111" cy="2200582"/>
+          <a:off x="2562225" y="5505450"/>
+          <a:ext cx="1590897" cy="543001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2692,21 +2633,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1609947</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47701</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47941</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="図 68">
+        <xdr:cNvPr id="74" name="図 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101CF614-3F1E-4B67-9778-83685F5FE93F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813D79AC-BD5C-4B4E-9BE3-C7F249C7C89B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2728,35 +2669,40 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2562225" y="5505450"/>
-          <a:ext cx="1590897" cy="543001"/>
+          <a:off x="2562225" y="6362700"/>
+          <a:ext cx="2267266" cy="895475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2410350</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95644</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2219632</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114337</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="図 72">
+        <xdr:cNvPr id="75" name="図 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35C8024-5A8D-F316-3BDD-960EE652B63B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157FF887-02D5-4AF8-9C74-4401FDBB1C0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2778,8 +2724,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5143500" y="5505450"/>
-          <a:ext cx="3762900" cy="2819794"/>
+          <a:off x="2562225" y="7562850"/>
+          <a:ext cx="2200582" cy="266737"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2797,21 +2743,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2286316</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>57275</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76520</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152466</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="図 73">
+        <xdr:cNvPr id="78" name="図 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813D79AC-BD5C-4B4E-9BE3-C7F249C7C89B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EEAD5BD-DC8B-4C55-A9EE-C2476A059921}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2833,35 +2779,40 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2562225" y="6362700"/>
-          <a:ext cx="2267266" cy="895475"/>
+          <a:off x="2562225" y="8077200"/>
+          <a:ext cx="2295845" cy="476316"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2219632</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114337</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1448049</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="図 74">
+        <xdr:cNvPr id="81" name="図 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157FF887-02D5-4AF8-9C74-4401FDBB1C0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5123845-2B00-4D7A-BF85-4CDC4F57F92F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2883,35 +2834,95 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2562225" y="7562850"/>
-          <a:ext cx="2200582" cy="266737"/>
+          <a:off x="419100" y="8248650"/>
+          <a:ext cx="1781424" cy="895475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2314895</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>152466</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1448049</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="図 77">
+        <xdr:cNvPr id="82" name="図 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EEAD5BD-DC8B-4C55-A9EE-C2476A059921}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810D257F-3E35-4E07-A2EA-C2FE00759164}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="9448800"/>
+          <a:ext cx="1781424" cy="895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1295627</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F81BFC94-669E-075E-FCD0-8ED314DB6738}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2933,35 +2944,40 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2562225" y="8077200"/>
-          <a:ext cx="2295845" cy="476316"/>
+          <a:off x="419100" y="4305300"/>
+          <a:ext cx="1629002" cy="2276793"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1448049</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>57275</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2796060</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>156566</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="図 80">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5123845-2B00-4D7A-BF85-4CDC4F57F92F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D214445C-61E2-4C23-B526-12853C77F23D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2983,62 +2999,17 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="8248650"/>
-          <a:ext cx="1781424" cy="895475"/>
+          <a:off x="5248275" y="4305301"/>
+          <a:ext cx="3386610" cy="2537815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1448049</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>57275</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="図 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810D257F-3E35-4E07-A2EA-C2FE00759164}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="419100" y="9448800"/>
-          <a:ext cx="1781424" cy="895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3727,21 +3698,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="2.625" customWidth="1"/>
     <col min="3" max="3" width="4.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.875" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="44" customWidth="1"/>
-    <col min="8" max="8" width="40.625" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -3751,389 +3719,788 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="H3" s="63" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C4" s="64">
+        <v>1</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="65" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C5" s="69">
+        <v>2</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="71"/>
+      <c r="F5" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C6" s="64">
+        <v>3</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="82"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C8" s="78"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="86"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="91" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C10" s="69">
+        <v>4</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C11" s="69">
+        <v>5</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="73" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C4" s="28">
-        <v>1</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="58"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C5" s="29"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="46" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C12" s="69">
+        <v>6</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C13" s="64">
+        <v>7</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="G5" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="C6" s="27">
-        <v>2</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39" t="s">
+      <c r="H13" s="93" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C14" s="78"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="G6" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="C7" s="28">
-        <v>3</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" s="49" t="s">
+      <c r="H14" s="86" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="H15" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="H7" s="48" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C8" s="30"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C16" s="64">
+        <v>8</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="93" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C17" s="78"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="86" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="91" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C19" s="69">
+        <v>9</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" s="73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H20" s="58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C21" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C22" s="32"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C25" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="68" t="s">
-        <v>168</v>
-      </c>
-      <c r="G8" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="H8" s="69"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C9" s="30"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="H9" s="43"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C10" s="29"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="H10" s="42" t="s">
+      <c r="D25" s="95"/>
+      <c r="E25" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C26" s="16"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C27" s="16"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C28" s="16"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C29" s="16"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C30" s="16"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C11" s="27">
-        <v>4</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C12" s="27">
-        <v>5</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C13" s="27">
-        <v>6</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C14" s="28">
-        <v>7</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C15" s="30"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C16" s="29"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34" t="s">
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C31" s="16"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C32" s="16"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C33" s="16"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C34" s="16"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C35" s="16"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C36" s="16"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C37" s="16"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C38" s="16"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C39" s="16"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="25"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C40" s="16"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C41" s="95" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C42" s="16"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C43" s="16"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C44" s="16"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="25"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C45" s="16"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95" t="s">
         <v>194</v>
       </c>
-      <c r="F16" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C17" s="28">
-        <v>8</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C18" s="30"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="F18" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C19" s="29"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C20" s="27">
-        <v>9</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H21" s="50"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C22" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="H22" s="50"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C23" s="54"/>
-      <c r="H23" s="50"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C26" s="1" t="s">
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="25"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C46" s="16"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="25"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C47" s="16"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="25"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C48" s="95" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="F26" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="G26" s="70"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E31" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E38" s="26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E41" s="26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C42" s="26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E46" s="26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C49" s="26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E69" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="G73" s="70"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="25"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C49" s="97"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="25"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C50" s="97"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C51" s="97"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="25"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C52" s="97"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="25"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C53" s="97"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="25"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C54" s="97"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="25"/>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C55" s="97"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="25"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C56" s="97"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="25"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C57" s="97"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="25"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C58" s="97"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="25"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C59" s="97"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="25"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C60" s="97"/>
+      <c r="D60" s="95"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="25"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C61" s="97"/>
+      <c r="D61" s="95"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="25"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C62" s="97"/>
+      <c r="D62" s="95"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="25"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C63" s="97"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="96"/>
+      <c r="G63" s="96"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C64" s="97"/>
+      <c r="D64" s="95"/>
+      <c r="E64" s="95"/>
+      <c r="F64" s="96"/>
+      <c r="G64" s="96"/>
+      <c r="H64" s="25"/>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C65" s="97"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="96"/>
+      <c r="G65" s="96"/>
+      <c r="H65" s="25"/>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C66" s="97"/>
+      <c r="E66" s="95" t="s">
+        <v>187</v>
+      </c>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="25"/>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C67" s="97"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="96"/>
+      <c r="G67" s="96"/>
+      <c r="H67" s="25"/>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C68" s="97"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="25"/>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C69" s="97"/>
+      <c r="D69" s="95"/>
+      <c r="E69" s="95"/>
+      <c r="F69" s="96"/>
+      <c r="G69" s="96"/>
+      <c r="H69" s="25"/>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C70" s="97"/>
+      <c r="D70" s="95"/>
+      <c r="E70" s="95"/>
+      <c r="F70" s="96"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C71" s="97"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="96"/>
+      <c r="G71" s="96"/>
+      <c r="H71" s="25"/>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C72" s="97"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="96"/>
+      <c r="G72" s="96"/>
+      <c r="H72" s="25"/>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C73" s="97"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="95"/>
+      <c r="F73" s="96"/>
+      <c r="G73" s="96"/>
+      <c r="H73" s="25"/>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C74" s="97"/>
+      <c r="D74" s="95"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="25"/>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C75" s="97"/>
+      <c r="D75" s="95"/>
+      <c r="E75" s="95"/>
+      <c r="F75" s="96"/>
+      <c r="G75" s="96"/>
+      <c r="H75" s="25"/>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C76" s="97"/>
+      <c r="D76" s="95"/>
+      <c r="E76" s="95"/>
+      <c r="F76" s="96"/>
+      <c r="G76" s="96"/>
+      <c r="H76" s="25"/>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C77" s="97"/>
+      <c r="D77" s="95"/>
+      <c r="E77" s="95"/>
+      <c r="F77" s="96"/>
+      <c r="G77" s="96"/>
+      <c r="H77" s="25"/>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C78" s="97"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="96"/>
+      <c r="G78" s="96"/>
+      <c r="H78" s="25"/>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C79" s="97"/>
+      <c r="D79" s="95"/>
+      <c r="E79" s="95"/>
+      <c r="F79" s="96"/>
+      <c r="G79" s="96"/>
+      <c r="H79" s="25"/>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C80" s="97"/>
+      <c r="D80" s="95"/>
+      <c r="E80" s="95"/>
+      <c r="F80" s="96"/>
+      <c r="G80" s="96"/>
+      <c r="H80" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4147,8 +4514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4188,7 +4555,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>7</v>
@@ -4210,17 +4577,17 @@
       <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="85" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" s="85" t="s">
+      <c r="I4" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4228,17 +4595,17 @@
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="91"/>
-      <c r="H5" s="90" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="93" t="s">
-        <v>225</v>
-      </c>
-      <c r="J5" s="90" t="s">
+      <c r="I5" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4246,15 +4613,15 @@
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="90" t="s">
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="91"/>
-      <c r="H6" s="90" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4262,17 +4629,17 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="91"/>
-      <c r="H7" s="90" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="93" t="s">
-        <v>224</v>
-      </c>
-      <c r="J7" s="90" t="s">
+      <c r="I7" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4280,15 +4647,15 @@
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="90" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="J8" s="90"/>
+      <c r="I8" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="4"/>
@@ -4297,12 +4664,12 @@
       <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="72"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="101" t="s">
-        <v>214</v>
+      <c r="I9" s="53" t="s">
+        <v>206</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>36</v>
@@ -4315,12 +4682,12 @@
       <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="72"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="7" t="s">
         <v>62</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -4333,12 +4700,12 @@
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="72"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="7" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>65</v>
@@ -4349,7 +4716,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="73"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -4365,14 +4732,14 @@
         <v>93</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="74" t="s">
-        <v>206</v>
+      <c r="G13" s="35" t="s">
+        <v>198</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="102" t="s">
-        <v>228</v>
+      <c r="I13" s="54" t="s">
+        <v>220</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>37</v>
@@ -4385,14 +4752,14 @@
         <v>94</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="72" t="s">
-        <v>205</v>
+      <c r="G14" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="103" t="s">
-        <v>228</v>
+      <c r="I14" s="47" t="s">
+        <v>220</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>68</v>
@@ -4403,7 +4770,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="73"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -4417,14 +4784,14 @@
       <c r="F16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="74" t="s">
-        <v>205</v>
+      <c r="G16" s="35" t="s">
+        <v>197</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>69</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>38</v>
@@ -4437,12 +4804,12 @@
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="72"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="7" t="s">
         <v>70</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>39</v>
@@ -4453,7 +4820,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="73"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -4467,14 +4834,14 @@
       <c r="F19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="74" t="s">
-        <v>205</v>
+      <c r="G19" s="35" t="s">
+        <v>197</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="104" t="s">
-        <v>227</v>
+      <c r="I19" s="55" t="s">
+        <v>219</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>43</v>
@@ -4487,12 +4854,12 @@
       <c r="F20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="72"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="7" t="s">
         <v>72</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>44</v>
@@ -4505,12 +4872,12 @@
       <c r="F21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="72"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J21" s="7"/>
     </row>
@@ -4521,12 +4888,12 @@
       <c r="F22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="72"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="7" t="s">
         <v>74</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J22" s="7"/>
     </row>
@@ -4537,12 +4904,12 @@
       <c r="F23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="72"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="7" t="s">
         <v>75</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J23" s="7"/>
     </row>
@@ -4551,7 +4918,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="73"/>
+      <c r="G24" s="34"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -4562,17 +4929,17 @@
       <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="85" t="s">
+      <c r="F25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="87"/>
-      <c r="H25" s="85" t="s">
+      <c r="G25" s="35"/>
+      <c r="H25" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="92" t="s">
-        <v>224</v>
-      </c>
-      <c r="J25" s="85" t="s">
+      <c r="I25" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4580,31 +4947,31 @@
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="88" t="s">
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="95" t="s">
-        <v>212</v>
-      </c>
-      <c r="J26" s="88"/>
+      <c r="I26" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" s="43"/>
     </row>
     <row r="27" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="90" t="s">
+      <c r="F27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="91"/>
-      <c r="H27" s="90" t="s">
+      <c r="G27" s="33"/>
+      <c r="H27" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="93" t="s">
-        <v>210</v>
-      </c>
-      <c r="J27" s="90" t="s">
+      <c r="I27" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4612,15 +4979,15 @@
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="90" t="s">
+      <c r="F28" s="7"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="95" t="s">
-        <v>231</v>
-      </c>
-      <c r="J28" s="90"/>
+      <c r="I28" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="4"/>
@@ -4629,12 +4996,12 @@
       <c r="F29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="72"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>42</v>
@@ -4645,25 +5012,25 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="73"/>
+      <c r="G30" s="34"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G31" s="44"/>
-      <c r="I31" s="105" t="s">
-        <v>233</v>
+      <c r="G31" s="27"/>
+      <c r="I31" s="56" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G32" s="44"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="44"/>
+      <c r="G33" s="27"/>
     </row>
     <row r="34" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="2" t="s">
@@ -4678,7 +5045,7 @@
       <c r="F34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="76"/>
+      <c r="G34" s="36"/>
       <c r="H34" s="3" t="s">
         <v>7</v>
       </c>
@@ -4698,7 +5065,7 @@
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="77"/>
+      <c r="G35" s="37"/>
       <c r="H35" s="11" t="s">
         <v>81</v>
       </c>
@@ -4712,7 +5079,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="78"/>
+      <c r="G36" s="38"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -4726,12 +5093,12 @@
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="77"/>
+      <c r="G37" s="37"/>
       <c r="H37" s="11" t="s">
         <v>82</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="J37" s="11" t="s">
         <v>46</v>
@@ -4742,7 +5109,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="78"/>
+      <c r="G38" s="38"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -4758,12 +5125,12 @@
       <c r="F39" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="79"/>
+      <c r="G39" s="39"/>
       <c r="H39" s="11" t="s">
         <v>83</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J39" s="11" t="s">
         <v>85</v>
@@ -4776,12 +5143,12 @@
       <c r="F40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="80"/>
+      <c r="G40" s="40"/>
       <c r="H40" s="7" t="s">
         <v>84</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>86</v>
@@ -4792,7 +5159,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="81"/>
+      <c r="G41" s="41"/>
       <c r="H41" s="9"/>
       <c r="I41" s="14"/>
       <c r="J41" s="9"/>
@@ -4808,7 +5175,7 @@
       <c r="F42" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="79"/>
+      <c r="G42" s="39"/>
       <c r="H42" s="11" t="s">
         <v>87</v>
       </c>
@@ -4826,7 +5193,7 @@
       <c r="F43" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G43" s="80"/>
+      <c r="G43" s="40"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7" t="s">
         <v>91</v>
@@ -4840,9 +5207,9 @@
       <c r="F44" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="80"/>
+      <c r="G44" s="40"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="106" t="s">
+      <c r="I44" s="57" t="s">
         <v>95</v>
       </c>
       <c r="J44" s="7"/>
@@ -4852,7 +5219,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="81"/>
+      <c r="G45" s="41"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -4865,15 +5232,15 @@
         <v>35</v>
       </c>
       <c r="E46" s="6"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="85" t="s">
+      <c r="F46" s="6"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I46" s="92" t="s">
-        <v>224</v>
-      </c>
-      <c r="J46" s="85" t="s">
+      <c r="I46" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="J46" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4881,22 +5248,22 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="84" t="s">
+      <c r="F47" s="5"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I47" s="96" t="s">
-        <v>211</v>
-      </c>
-      <c r="J47" s="84"/>
+      <c r="I47" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="J47" s="5"/>
     </row>
     <row r="48" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="78"/>
+      <c r="G48" s="38"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -4908,8 +5275,8 @@
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
-      <c r="I49" s="105" t="s">
-        <v>233</v>
+      <c r="I49" s="56" t="s">
+        <v>225</v>
       </c>
       <c r="J49" s="25"/>
     </row>
@@ -4937,7 +5304,7 @@
       <c r="J51" s="25"/>
     </row>
     <row r="52" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="52" t="s">
+      <c r="C52" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D52" s="18" t="s">
@@ -4949,7 +5316,7 @@
       <c r="F52" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="G52" s="75"/>
+      <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
@@ -4967,8 +5334,8 @@
       <c r="F53" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G53" s="53" t="s">
-        <v>184</v>
+      <c r="G53" s="31" t="s">
+        <v>178</v>
       </c>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
@@ -4977,13 +5344,13 @@
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G54" s="86" t="s">
-        <v>208</v>
+        <v>181</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>200</v>
       </c>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
@@ -4992,12 +5359,12 @@
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
       <c r="E55" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G55" s="71"/>
+      <c r="G55" s="25"/>
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
     </row>
@@ -5005,13 +5372,13 @@
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G56" s="86" t="s">
-        <v>208</v>
+        <v>199</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>200</v>
       </c>
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
@@ -5021,7 +5388,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="71"/>
+      <c r="G57" s="25"/>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
@@ -5196,17 +5563,17 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C13" s="97">
+      <c r="C13" s="50">
         <v>1</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="F13" s="98" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -5229,21 +5596,21 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C17" s="99">
+      <c r="C17" s="52">
         <v>1</v>
       </c>
-      <c r="D17" s="100" t="s">
-        <v>217</v>
-      </c>
-      <c r="E17" s="100" t="s">
-        <v>220</v>
-      </c>
-      <c r="F17" s="100" t="s">
-        <v>221</v>
+      <c r="D17" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C18" s="99">
+      <c r="C18" s="52">
         <v>2</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -5257,7 +5624,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C19" s="99">
+      <c r="C19" s="52">
         <v>3</v>
       </c>
       <c r="D19" s="23" t="s">
@@ -5271,7 +5638,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C20" s="99">
+      <c r="C20" s="52">
         <v>4</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -5285,7 +5652,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C21" s="99">
+      <c r="C21" s="52">
         <v>5</v>
       </c>
       <c r="D21" s="23" t="s">
@@ -5299,7 +5666,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C22" s="99">
+      <c r="C22" s="52">
         <v>6</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -5313,7 +5680,7 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C23" s="99">
+      <c r="C23" s="52">
         <v>7</v>
       </c>
       <c r="D23" s="17" t="s">
@@ -5327,7 +5694,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C24" s="99">
+      <c r="C24" s="52">
         <v>8</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -5372,7 +5739,7 @@
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
